--- a/Jupyter/F82H/F82H_Indro.xlsx
+++ b/Jupyter/F82H/F82H_Indro.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://personalmicrosoftsoftware0-my.sharepoint.com/personal/ighosh_personalmicrosoftsoftware_ucla_edu/Documents/Ghoniem/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\indro\Documents\GhoniemDesktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="505" documentId="13_ncr:1_{C75EEF59-AFE7-4FFA-AE92-2299CBE860B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C48425CD-6A89-4FB3-BD2B-D74FD3244909}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E573FD51-4859-4D13-ADBB-CDF811DAD527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="614" firstSheet="2" activeTab="7" xr2:uid="{D289EE42-B074-4616-9B9B-4CE9F1662138}"/>
+    <workbookView xWindow="9950" yWindow="1660" windowWidth="27430" windowHeight="17250" tabRatio="614" firstSheet="1" activeTab="4" xr2:uid="{D289EE42-B074-4616-9B9B-4CE9F1662138}"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="2" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="90">
   <si>
     <t>F82H</t>
   </si>
@@ -61,27 +61,6 @@
     <t>Sheet Name</t>
   </si>
   <si>
-    <t>T_CIEMAT_u</t>
-  </si>
-  <si>
-    <t>T_CEA_u (K)</t>
-  </si>
-  <si>
-    <t>T_ECN_u (K)</t>
-  </si>
-  <si>
-    <t>T_CIEMAT_u (K)</t>
-  </si>
-  <si>
-    <t>T_FZK_JAERI_u (K)</t>
-  </si>
-  <si>
-    <t>T_CEA_y (K)</t>
-  </si>
-  <si>
-    <t>T_CIEMAT_y (K)</t>
-  </si>
-  <si>
     <t>CEA_u</t>
   </si>
   <si>
@@ -100,24 +79,15 @@
     <t>CEA_y (MPa)</t>
   </si>
   <si>
-    <t>T_ECN_y (K)</t>
-  </si>
-  <si>
     <t>ECN_y (MPa)</t>
   </si>
   <si>
     <t>CIEMAT_y (MPa)</t>
   </si>
   <si>
-    <t>T_FZK_y (K)</t>
-  </si>
-  <si>
     <t>FZK_y (MPa)</t>
   </si>
   <si>
-    <t>T_JAERI_y (K)</t>
-  </si>
-  <si>
     <t>JAERI_y (MPa)</t>
   </si>
   <si>
@@ -130,42 +100,18 @@
     <t>FZK_u</t>
   </si>
   <si>
-    <t>T_CEA_u</t>
-  </si>
-  <si>
-    <t>T_ECN_u</t>
-  </si>
-  <si>
-    <t>T_FZK_u</t>
-  </si>
-  <si>
-    <t>T_CEA_t</t>
-  </si>
-  <si>
     <t>CEA_t</t>
   </si>
   <si>
     <t>CIEMAT_t</t>
   </si>
   <si>
-    <t>T_CIEMAT_t</t>
-  </si>
-  <si>
     <t>ECN_t</t>
   </si>
   <si>
-    <t>T_ECN_t</t>
-  </si>
-  <si>
-    <t>T_FZK_t</t>
-  </si>
-  <si>
     <t>FZK_t</t>
   </si>
   <si>
-    <t>T_JAERI_t</t>
-  </si>
-  <si>
     <t>JAERI_t</t>
   </si>
   <si>
@@ -314,6 +260,60 @@
   </si>
   <si>
     <t>F82H Creep Strain</t>
+  </si>
+  <si>
+    <t>Tavassoli_y (MPa)</t>
+  </si>
+  <si>
+    <t>Tavassoli_u (MPa)</t>
+  </si>
+  <si>
+    <t>T_CEA_y (C)</t>
+  </si>
+  <si>
+    <t>T_ECN_y (C)</t>
+  </si>
+  <si>
+    <t>T_CIEMAT_y (C)</t>
+  </si>
+  <si>
+    <t>T_FZK_y (C)</t>
+  </si>
+  <si>
+    <t>T_JAERI_y (C)</t>
+  </si>
+  <si>
+    <t>T_Tavassoli (C)</t>
+  </si>
+  <si>
+    <t>T_CEA_u (C)</t>
+  </si>
+  <si>
+    <t>T_FZK_JAERI_u (C)</t>
+  </si>
+  <si>
+    <t>T_CIEMAT_u (C)</t>
+  </si>
+  <si>
+    <t>T_ECN_u (C)</t>
+  </si>
+  <si>
+    <t>T_FZK_u (C)</t>
+  </si>
+  <si>
+    <t>T_CEA_t (C)</t>
+  </si>
+  <si>
+    <t>T_ECN_t (C)</t>
+  </si>
+  <si>
+    <t>T_CIEMAT_t (C)</t>
+  </si>
+  <si>
+    <t>T_FZK_t (C)</t>
+  </si>
+  <si>
+    <t>T_JAERI_t (C)</t>
   </si>
 </sst>
 </file>
@@ -387,16 +387,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>557646</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>17420</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>830040</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>62765</xdr:rowOff>
+      <xdr:rowOff>153226</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -425,8 +425,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8610600" y="120650"/>
-          <a:ext cx="7772400" cy="5834915"/>
+          <a:off x="10388940" y="204185"/>
+          <a:ext cx="7811248" cy="5925512"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -437,16 +437,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>238900</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>118250</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>69658</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>15020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>86805</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>143878</xdr:rowOff>
+      <xdr:colOff>184185</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>49612</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -475,8 +475,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16660000" y="118250"/>
-          <a:ext cx="5943905" cy="4445228"/>
+          <a:off x="18477187" y="201785"/>
+          <a:ext cx="5973788" cy="4516945"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -487,16 +487,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>179350</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>134900</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>10108</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>40634</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>103459</xdr:colOff>
+      <xdr:colOff>200839</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>71870</xdr:rowOff>
+      <xdr:rowOff>162332</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -525,8 +525,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16600450" y="4554500"/>
-          <a:ext cx="6020109" cy="9144470"/>
+          <a:off x="18417637" y="4709752"/>
+          <a:ext cx="6049992" cy="9273168"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -542,16 +542,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>463550</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>11858</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>151558</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -580,7 +580,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7677150" y="228600"/>
+          <a:off x="9880600" y="184150"/>
           <a:ext cx="7772400" cy="5491908"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -592,16 +592,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>334150</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>340500</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
+      <xdr:rowOff>23000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>524953</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>137603</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>86964</xdr:rowOff>
+      <xdr:rowOff>36164</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -630,7 +630,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15320150" y="257950"/>
+          <a:off x="17676000" y="207150"/>
           <a:ext cx="5893103" cy="9036514"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -642,16 +642,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>109500</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>350800</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>141250</xdr:rowOff>
+      <xdr:rowOff>96800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>605087</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>20802</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>452688</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>160502</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -680,7 +680,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15095500" y="9348750"/>
+          <a:off x="17686300" y="9304300"/>
           <a:ext cx="5588287" cy="3930852"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1670,7 +1670,7 @@
     </row>
     <row r="2" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1678,7 +1678,7 @@
     </row>
     <row r="3" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1686,7 +1686,7 @@
     </row>
     <row r="4" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1694,7 +1694,7 @@
     </row>
     <row r="5" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1702,17 +1702,17 @@
     </row>
     <row r="6" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1723,22 +1723,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D931B76-7C5F-495B-8FF4-78E0CE47C1ED}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S41" sqref="S41"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.36328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.90625" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.1796875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1751,40 +1752,48 @@
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="C2" s="3" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>16.989027309223001</v>
       </c>
@@ -1815,8 +1824,14 @@
       <c r="J3" s="3">
         <v>552.38401715217105</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K3" s="1">
+        <v>20</v>
+      </c>
+      <c r="L3" s="1">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>250.69686787206601</v>
       </c>
@@ -1847,8 +1862,14 @@
       <c r="J4" s="3">
         <v>430.91698723522501</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K4" s="1">
+        <v>100</v>
+      </c>
+      <c r="L4" s="1">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>250.118711178854</v>
       </c>
@@ -1879,8 +1900,14 @@
       <c r="J5" s="3">
         <v>226.92126895292699</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K5" s="1">
+        <v>200</v>
+      </c>
+      <c r="L5" s="1">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>300.94105123551202</v>
       </c>
@@ -1907,8 +1934,14 @@
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K6" s="1">
+        <v>250</v>
+      </c>
+      <c r="L6" s="1">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>351.73904785245702</v>
       </c>
@@ -1935,8 +1968,14 @@
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K7" s="1">
+        <v>300</v>
+      </c>
+      <c r="L7" s="1">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>499.06081155617301</v>
       </c>
@@ -1959,8 +1998,14 @@
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K8" s="1">
+        <v>350</v>
+      </c>
+      <c r="L8" s="1">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>553.22428871360603</v>
       </c>
@@ -1979,8 +2024,14 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K9" s="1">
+        <v>400</v>
+      </c>
+      <c r="L9" s="1">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>653.60851961505398</v>
       </c>
@@ -1999,8 +2050,14 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K10" s="1">
+        <v>450</v>
+      </c>
+      <c r="L10" s="1">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2011,10 +2068,48 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
+      <c r="K11" s="1">
+        <v>500</v>
+      </c>
+      <c r="L11" s="1">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K12" s="1">
+        <v>550</v>
+      </c>
+      <c r="L12" s="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K13" s="1">
+        <v>600</v>
+      </c>
+      <c r="L13" s="1">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K14" s="1">
+        <v>650</v>
+      </c>
+      <c r="L14" s="1">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K15" s="1">
+        <v>700</v>
+      </c>
+      <c r="L15" s="1">
+        <v>134</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2023,28 +2118,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61307E5D-2D7B-4CE3-B2DB-16307B2B26EE}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="11.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.08984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="12.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.08984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.08984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="11.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.36328125" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.08984375" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="18" width="11.81640625" style="3" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2055,34 +2149,42 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="C2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="E2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="G2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>19.883689652543602</v>
       </c>
@@ -2107,8 +2209,14 @@
       <c r="H3" s="3">
         <v>656.80853389133802</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I3" s="1">
+        <v>20</v>
+      </c>
+      <c r="J3" s="1">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>249.64093324815801</v>
       </c>
@@ -2133,8 +2241,14 @@
       <c r="H4" s="3">
         <v>516.30149348529005</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I4" s="1">
+        <v>100</v>
+      </c>
+      <c r="J4" s="1">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>347.34529235807702</v>
       </c>
@@ -2159,8 +2273,14 @@
       <c r="H5" s="3">
         <v>490.576763214994</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I5" s="1">
+        <v>200</v>
+      </c>
+      <c r="J5" s="1">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>450.20234174146202</v>
       </c>
@@ -2185,8 +2305,14 @@
       <c r="H6" s="3">
         <v>440.43339754259</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I6" s="1">
+        <v>250</v>
+      </c>
+      <c r="J6" s="1">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>498.85608193598102</v>
       </c>
@@ -2211,8 +2337,14 @@
       <c r="H7" s="3">
         <v>459.330458232475</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I7" s="1">
+        <v>300</v>
+      </c>
+      <c r="J7" s="1">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>550.81913979651404</v>
       </c>
@@ -2231,8 +2363,14 @@
       <c r="H8" s="3">
         <v>347.00527944729203</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I8" s="1">
+        <v>350</v>
+      </c>
+      <c r="J8" s="1">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>648.31514692949497</v>
       </c>
@@ -2251,8 +2389,14 @@
       <c r="H9" s="3">
         <v>286.64132188393597</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I9" s="1">
+        <v>400</v>
+      </c>
+      <c r="J9" s="1">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>700.29765596202299</v>
       </c>
@@ -2271,10 +2415,56 @@
       <c r="H10" s="3">
         <v>153.24248432210001</v>
       </c>
+      <c r="I10" s="1">
+        <v>450</v>
+      </c>
+      <c r="J10" s="1">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I11" s="1">
+        <v>500</v>
+      </c>
+      <c r="J11" s="1">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I12" s="1">
+        <v>550</v>
+      </c>
+      <c r="J12" s="1">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I13" s="1">
+        <v>600</v>
+      </c>
+      <c r="J13" s="1">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I14" s="1">
+        <v>650</v>
+      </c>
+      <c r="J14" s="1">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I15" s="1">
+        <v>700</v>
+      </c>
+      <c r="J15" s="1">
+        <v>194</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2291,7 +2481,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="18" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="18" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
@@ -2308,28 +2500,28 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -2571,13 +2763,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD2DAEC4-8637-41BC-BD00-C4174E60E61C}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="10" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
@@ -2596,34 +2790,34 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="J2" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -2888,7 +3082,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2905,7 +3099,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -2917,28 +3111,28 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -3202,7 +3396,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -3222,52 +3416,52 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
@@ -5489,7 +5683,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E8CD3D0-7518-4827-989C-484F0B819C0C}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
@@ -5512,16 +5706,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -5922,40 +6116,40 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
